--- a/Documents/Excel example - Copy.xlsx
+++ b/Documents/Excel example - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c578159010f04de8/Projects/LegalContract/word-contract-assistant/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{CBD5E942-86F9-418F-84BC-0EDB995A715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9141290-754B-4E3F-8B6B-FB04F97FC9ED}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{CBD5E942-86F9-418F-84BC-0EDB995A715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BEFC5C-B08D-4232-A61D-B78F3C2C6D77}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="960" windowWidth="20940" windowHeight="11790" xr2:uid="{D4E67FDF-EE43-4ECD-B6C3-0BE62C4F55F0}"/>
+    <workbookView xWindow="30150" yWindow="1995" windowWidth="20940" windowHeight="11790" xr2:uid="{D4E67FDF-EE43-4ECD-B6C3-0BE62C4F55F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Udemy should not have the right to use user's content in any way</t>
   </si>
@@ -56,10 +56,13 @@
     <t>5. Udemy’s Rights to Content You Post</t>
   </si>
   <si>
-    <t>9.3 Limitation of liability</t>
-  </si>
-  <si>
-    <t>8.4 Payments and billing</t>
+    <t>Subscription plan can only be changed by user</t>
+  </si>
+  <si>
+    <t>8.4 Payments and Billing</t>
+  </si>
+  <si>
+    <t>9.3 Limitation of Liability</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E8D82-C676-45FB-B7ED-0823BABE15CE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +476,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
